--- a/01_data-input/wiiw/employment_activities.xlsx
+++ b/01_data-input/wiiw/employment_activities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\01_data-input\wiiw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E09A927-8662-46CA-8CBD-281D8FD7AFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC658DF8-D8B9-4373-98D0-3E4FFA41248A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="60">
   <si>
     <t>wiiw Annual Database</t>
   </si>
@@ -578,11 +578,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP77"/>
+  <dimension ref="A1:AK77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="8" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -595,15 +595,15 @@
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="43" width="7" customWidth="1"/>
+    <col min="9" max="38" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -611,7 +611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -619,7 +619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -627,7 +627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -635,7 +635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -643,7 +643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -669,109 +669,94 @@
         <v>18</v>
       </c>
       <c r="I8" s="2">
-        <v>1990</v>
+        <v>1995</v>
       </c>
       <c r="J8" s="2">
-        <v>1991</v>
+        <v>1996</v>
       </c>
       <c r="K8" s="2">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="L8" s="2">
-        <v>1993</v>
+        <v>1998</v>
       </c>
       <c r="M8" s="2">
-        <v>1994</v>
+        <v>1999</v>
       </c>
       <c r="N8" s="2">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="O8" s="2">
-        <v>1996</v>
+        <v>2001</v>
       </c>
       <c r="P8" s="2">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="Q8" s="2">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="R8" s="2">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="S8" s="2">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="T8" s="2">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="U8" s="2">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="V8" s="2">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="W8" s="2">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="X8" s="2">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="Y8" s="2">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="Z8" s="2">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="AA8" s="2">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="AB8" s="2">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="AC8" s="2">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="AD8" s="2">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="AE8" s="2">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="AF8" s="2">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="AG8" s="2">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="AH8" s="2">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="AI8" s="2">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="AJ8" s="2">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="AK8" s="2">
-        <v>2018</v>
-      </c>
-      <c r="AL8" s="2">
-        <v>2019</v>
-      </c>
-      <c r="AM8" s="2">
-        <v>2020</v>
-      </c>
-      <c r="AN8" s="2">
-        <v>2021</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>2022</v>
-      </c>
-      <c r="AP8" s="2">
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -847,59 +832,44 @@
       <c r="Y9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>27</v>
+      <c r="Z9" s="3">
+        <v>813.68299999999999</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>821.6</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>812.03099999999995</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>821.51199999999994</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>801.08399999999995</v>
       </c>
       <c r="AE9" s="3">
-        <v>813.68299999999999</v>
+        <v>815.65899999999999</v>
       </c>
       <c r="AF9" s="3">
-        <v>821.6</v>
+        <v>822.44600000000003</v>
       </c>
       <c r="AG9" s="3">
-        <v>812.03099999999995</v>
+        <v>802.85599999999999</v>
       </c>
       <c r="AH9" s="3">
-        <v>821.51199999999994</v>
+        <v>1173.079</v>
       </c>
       <c r="AI9" s="3">
-        <v>801.08399999999995</v>
+        <v>1150.7249999999999</v>
       </c>
       <c r="AJ9" s="3">
-        <v>815.65899999999999</v>
-      </c>
-      <c r="AK9" s="3">
-        <v>822.44600000000003</v>
-      </c>
-      <c r="AL9" s="3">
-        <v>802.85599999999999</v>
-      </c>
-      <c r="AM9" s="3">
-        <v>1173.079</v>
-      </c>
-      <c r="AN9" s="3">
-        <v>1150.7249999999999</v>
-      </c>
-      <c r="AO9" s="3">
         <v>1162</v>
       </c>
-      <c r="AP9" s="3" t="s">
+      <c r="AK9" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -975,59 +945,44 @@
       <c r="Y10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>27</v>
+      <c r="Z10" s="3">
+        <v>167.27799999999999</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>154.983</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>138.68799999999999</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>146.851</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>143.85300000000001</v>
       </c>
       <c r="AE10" s="3">
-        <v>167.27799999999999</v>
+        <v>153.92400000000001</v>
       </c>
       <c r="AF10" s="3">
-        <v>154.983</v>
+        <v>129.32900000000001</v>
       </c>
       <c r="AG10" s="3">
-        <v>138.68799999999999</v>
+        <v>144.21299999999999</v>
       </c>
       <c r="AH10" s="3">
-        <v>146.851</v>
+        <v>140.52699999999999</v>
       </c>
       <c r="AI10" s="3">
-        <v>143.85300000000001</v>
+        <v>108.654</v>
       </c>
       <c r="AJ10" s="3">
-        <v>153.92400000000001</v>
-      </c>
-      <c r="AK10" s="3">
-        <v>129.32900000000001</v>
-      </c>
-      <c r="AL10" s="3">
-        <v>144.21299999999999</v>
-      </c>
-      <c r="AM10" s="3">
-        <v>140.52699999999999</v>
-      </c>
-      <c r="AN10" s="3">
-        <v>108.654</v>
-      </c>
-      <c r="AO10" s="3">
         <v>84.286000000000001</v>
       </c>
-      <c r="AP10" s="3" t="s">
+      <c r="AK10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1103,59 +1058,44 @@
       <c r="Y11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>27</v>
+      <c r="Z11" s="3">
+        <v>17.553000000000001</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>18.004000000000001</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>19.785</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>18.872</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>15.468999999999999</v>
       </c>
       <c r="AE11" s="3">
-        <v>17.553000000000001</v>
+        <v>16.227</v>
       </c>
       <c r="AF11" s="3">
-        <v>18.004000000000001</v>
+        <v>17.358000000000001</v>
       </c>
       <c r="AG11" s="3">
-        <v>19.785</v>
+        <v>13.904</v>
       </c>
       <c r="AH11" s="3">
-        <v>18.872</v>
+        <v>19.077000000000002</v>
       </c>
       <c r="AI11" s="3">
-        <v>15.468999999999999</v>
+        <v>20.858000000000001</v>
       </c>
       <c r="AJ11" s="3">
-        <v>16.227</v>
-      </c>
-      <c r="AK11" s="3">
-        <v>17.358000000000001</v>
-      </c>
-      <c r="AL11" s="3">
-        <v>13.904</v>
-      </c>
-      <c r="AM11" s="3">
-        <v>19.077000000000002</v>
-      </c>
-      <c r="AN11" s="3">
-        <v>20.858000000000001</v>
-      </c>
-      <c r="AO11" s="3">
         <v>21.384</v>
       </c>
-      <c r="AP11" s="3" t="s">
+      <c r="AK11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1231,59 +1171,44 @@
       <c r="Y12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD12" s="3" t="s">
-        <v>27</v>
+      <c r="Z12" s="3">
+        <v>126.125</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>131.28100000000001</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>130.32900000000001</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>131.92099999999999</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>138.54</v>
       </c>
       <c r="AE12" s="3">
-        <v>126.125</v>
+        <v>134.71</v>
       </c>
       <c r="AF12" s="3">
-        <v>131.28100000000001</v>
+        <v>145.46199999999999</v>
       </c>
       <c r="AG12" s="3">
-        <v>130.32900000000001</v>
+        <v>149.63200000000001</v>
       </c>
       <c r="AH12" s="3">
-        <v>131.92099999999999</v>
+        <v>221.958</v>
       </c>
       <c r="AI12" s="3">
-        <v>138.54</v>
+        <v>218.56800000000001</v>
       </c>
       <c r="AJ12" s="3">
-        <v>134.71</v>
-      </c>
-      <c r="AK12" s="3">
-        <v>145.46199999999999</v>
-      </c>
-      <c r="AL12" s="3">
-        <v>149.63200000000001</v>
-      </c>
-      <c r="AM12" s="3">
-        <v>221.958</v>
-      </c>
-      <c r="AN12" s="3">
-        <v>218.56800000000001</v>
-      </c>
-      <c r="AO12" s="3">
         <v>229.011</v>
       </c>
-      <c r="AP12" s="3" t="s">
+      <c r="AK12" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1359,59 +1284,44 @@
       <c r="Y13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD13" s="3" t="s">
-        <v>27</v>
+      <c r="Z13" s="3">
+        <v>17.690999999999999</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>20.465</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>17.183</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>16.795000000000002</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>15.992000000000001</v>
       </c>
       <c r="AE13" s="3">
-        <v>17.690999999999999</v>
+        <v>17.481000000000002</v>
       </c>
       <c r="AF13" s="3">
-        <v>20.465</v>
+        <v>17.652999999999999</v>
       </c>
       <c r="AG13" s="3">
-        <v>17.183</v>
+        <v>17.806999999999999</v>
       </c>
       <c r="AH13" s="3">
-        <v>16.795000000000002</v>
+        <v>23.42</v>
       </c>
       <c r="AI13" s="3">
-        <v>15.992000000000001</v>
+        <v>23.04</v>
       </c>
       <c r="AJ13" s="3">
-        <v>17.481000000000002</v>
-      </c>
-      <c r="AK13" s="3">
-        <v>17.652999999999999</v>
-      </c>
-      <c r="AL13" s="3">
-        <v>17.806999999999999</v>
-      </c>
-      <c r="AM13" s="3">
-        <v>23.42</v>
-      </c>
-      <c r="AN13" s="3">
-        <v>23.04</v>
-      </c>
-      <c r="AO13" s="3">
         <v>24.247</v>
       </c>
-      <c r="AP13" s="3" t="s">
+      <c r="AK13" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1487,59 +1397,44 @@
       <c r="Y14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>27</v>
+      <c r="Z14" s="3">
+        <v>13.327999999999999</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>12.319000000000001</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>13.37</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>11.583</v>
       </c>
       <c r="AE14" s="3">
-        <v>13.327999999999999</v>
+        <v>12.776999999999999</v>
       </c>
       <c r="AF14" s="3">
-        <v>12.319000000000001</v>
+        <v>12.602</v>
       </c>
       <c r="AG14" s="3">
-        <v>11.8</v>
+        <v>9.4420000000000002</v>
       </c>
       <c r="AH14" s="3">
-        <v>13.37</v>
+        <v>15.795999999999999</v>
       </c>
       <c r="AI14" s="3">
-        <v>11.583</v>
+        <v>18.294</v>
       </c>
       <c r="AJ14" s="3">
-        <v>12.776999999999999</v>
-      </c>
-      <c r="AK14" s="3">
-        <v>12.602</v>
-      </c>
-      <c r="AL14" s="3">
-        <v>9.4420000000000002</v>
-      </c>
-      <c r="AM14" s="3">
-        <v>15.795999999999999</v>
-      </c>
-      <c r="AN14" s="3">
-        <v>18.294</v>
-      </c>
-      <c r="AO14" s="3">
         <v>20.433</v>
       </c>
-      <c r="AP14" s="3" t="s">
+      <c r="AK14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1615,59 +1510,44 @@
       <c r="Y15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD15" s="3" t="s">
-        <v>27</v>
+      <c r="Z15" s="3">
+        <v>72.337999999999994</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>62.914000000000001</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>64.537999999999997</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>61.216999999999999</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>68.963999999999999</v>
       </c>
       <c r="AE15" s="3">
-        <v>72.337999999999994</v>
+        <v>59.472000000000001</v>
       </c>
       <c r="AF15" s="3">
-        <v>62.914000000000001</v>
+        <v>71.212999999999994</v>
       </c>
       <c r="AG15" s="3">
-        <v>64.537999999999997</v>
+        <v>63.814999999999998</v>
       </c>
       <c r="AH15" s="3">
-        <v>61.216999999999999</v>
+        <v>111.06699999999999</v>
       </c>
       <c r="AI15" s="3">
-        <v>68.963999999999999</v>
+        <v>105.23099999999999</v>
       </c>
       <c r="AJ15" s="3">
-        <v>59.472000000000001</v>
-      </c>
-      <c r="AK15" s="3">
-        <v>71.212999999999994</v>
-      </c>
-      <c r="AL15" s="3">
-        <v>63.814999999999998</v>
-      </c>
-      <c r="AM15" s="3">
-        <v>111.06699999999999</v>
-      </c>
-      <c r="AN15" s="3">
-        <v>105.23099999999999</v>
-      </c>
-      <c r="AO15" s="3">
         <v>106.43600000000001</v>
       </c>
-      <c r="AP15" s="3" t="s">
+      <c r="AK15" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1743,59 +1623,44 @@
       <c r="Y16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD16" s="3" t="s">
-        <v>27</v>
+      <c r="Z16" s="3">
+        <v>106.271</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>107.19199999999999</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>118.264</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>114.438</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>107.371</v>
       </c>
       <c r="AE16" s="3">
-        <v>106.271</v>
+        <v>110.69199999999999</v>
       </c>
       <c r="AF16" s="3">
-        <v>107.19199999999999</v>
+        <v>110.80200000000001</v>
       </c>
       <c r="AG16" s="3">
-        <v>118.264</v>
+        <v>101.67400000000001</v>
       </c>
       <c r="AH16" s="3">
-        <v>114.438</v>
+        <v>159.02699999999999</v>
       </c>
       <c r="AI16" s="3">
-        <v>107.371</v>
+        <v>169.72</v>
       </c>
       <c r="AJ16" s="3">
-        <v>110.69199999999999</v>
-      </c>
-      <c r="AK16" s="3">
-        <v>110.80200000000001</v>
-      </c>
-      <c r="AL16" s="3">
-        <v>101.67400000000001</v>
-      </c>
-      <c r="AM16" s="3">
-        <v>159.02699999999999</v>
-      </c>
-      <c r="AN16" s="3">
-        <v>169.72</v>
-      </c>
-      <c r="AO16" s="3">
         <v>182.52099999999999</v>
       </c>
-      <c r="AP16" s="3" t="s">
+      <c r="AK16" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1871,59 +1736,44 @@
       <c r="Y17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD17" s="3" t="s">
-        <v>27</v>
+      <c r="Z17" s="3">
+        <v>35.749000000000002</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>37.313000000000002</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>37.139000000000003</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>37.523000000000003</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>36.564999999999998</v>
       </c>
       <c r="AE17" s="3">
-        <v>35.749000000000002</v>
+        <v>37.792000000000002</v>
       </c>
       <c r="AF17" s="3">
-        <v>37.313000000000002</v>
+        <v>42.125999999999998</v>
       </c>
       <c r="AG17" s="3">
-        <v>37.139000000000003</v>
+        <v>38.125999999999998</v>
       </c>
       <c r="AH17" s="3">
-        <v>37.523000000000003</v>
+        <v>59.073999999999998</v>
       </c>
       <c r="AI17" s="3">
-        <v>36.564999999999998</v>
+        <v>66.786000000000001</v>
       </c>
       <c r="AJ17" s="3">
-        <v>37.792000000000002</v>
-      </c>
-      <c r="AK17" s="3">
-        <v>42.125999999999998</v>
-      </c>
-      <c r="AL17" s="3">
-        <v>38.125999999999998</v>
-      </c>
-      <c r="AM17" s="3">
-        <v>59.073999999999998</v>
-      </c>
-      <c r="AN17" s="3">
-        <v>66.786000000000001</v>
-      </c>
-      <c r="AO17" s="3">
         <v>68.634</v>
       </c>
-      <c r="AP17" s="3" t="s">
+      <c r="AK17" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1999,59 +1849,44 @@
       <c r="Y18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD18" s="3" t="s">
-        <v>27</v>
+      <c r="Z18" s="3">
+        <v>29.509</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>30.841000000000001</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>35.118000000000002</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>35.527999999999999</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>30.923999999999999</v>
       </c>
       <c r="AE18" s="3">
-        <v>29.509</v>
+        <v>37.445</v>
       </c>
       <c r="AF18" s="3">
-        <v>30.841000000000001</v>
+        <v>37.44</v>
       </c>
       <c r="AG18" s="3">
-        <v>35.118000000000002</v>
+        <v>33.246000000000002</v>
       </c>
       <c r="AH18" s="3">
-        <v>35.527999999999999</v>
+        <v>60.255000000000003</v>
       </c>
       <c r="AI18" s="3">
-        <v>30.923999999999999</v>
+        <v>57.805999999999997</v>
       </c>
       <c r="AJ18" s="3">
-        <v>37.445</v>
-      </c>
-      <c r="AK18" s="3">
-        <v>37.44</v>
-      </c>
-      <c r="AL18" s="3">
-        <v>33.246000000000002</v>
-      </c>
-      <c r="AM18" s="3">
-        <v>60.255000000000003</v>
-      </c>
-      <c r="AN18" s="3">
-        <v>57.805999999999997</v>
-      </c>
-      <c r="AO18" s="3">
         <v>60.895000000000003</v>
       </c>
-      <c r="AP18" s="3" t="s">
+      <c r="AK18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2127,59 +1962,44 @@
       <c r="Y19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>27</v>
+      <c r="Z19" s="3">
+        <v>12.955</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>16.14</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>15.118</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>12.128</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>15.884</v>
       </c>
       <c r="AE19" s="3">
-        <v>12.955</v>
+        <v>13.522</v>
       </c>
       <c r="AF19" s="3">
-        <v>16.14</v>
+        <v>13.59</v>
       </c>
       <c r="AG19" s="3">
-        <v>15.118</v>
+        <v>16.853999999999999</v>
       </c>
       <c r="AH19" s="3">
-        <v>12.128</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="AI19" s="3">
-        <v>15.884</v>
+        <v>23.016999999999999</v>
       </c>
       <c r="AJ19" s="3">
-        <v>13.522</v>
-      </c>
-      <c r="AK19" s="3">
-        <v>13.59</v>
-      </c>
-      <c r="AL19" s="3">
-        <v>16.853999999999999</v>
-      </c>
-      <c r="AM19" s="3">
-        <v>19.170000000000002</v>
-      </c>
-      <c r="AN19" s="3">
-        <v>23.016999999999999</v>
-      </c>
-      <c r="AO19" s="3">
         <v>30.530999999999999</v>
       </c>
-      <c r="AP19" s="3" t="s">
+      <c r="AK19" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2255,59 +2075,44 @@
       <c r="Y20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD20" s="3" t="s">
-        <v>27</v>
+      <c r="Z20" s="3">
+        <v>14.464</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>15.208</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>13.054</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>13.010999999999999</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>13.805</v>
       </c>
       <c r="AE20" s="3">
-        <v>14.464</v>
+        <v>10.372999999999999</v>
       </c>
       <c r="AF20" s="3">
-        <v>15.208</v>
+        <v>9.6590000000000007</v>
       </c>
       <c r="AG20" s="3">
-        <v>13.054</v>
+        <v>12.516</v>
       </c>
       <c r="AH20" s="3">
-        <v>13.010999999999999</v>
+        <v>20.614999999999998</v>
       </c>
       <c r="AI20" s="3">
-        <v>13.805</v>
+        <v>20.622</v>
       </c>
       <c r="AJ20" s="3">
-        <v>10.372999999999999</v>
-      </c>
-      <c r="AK20" s="3">
-        <v>9.6590000000000007</v>
-      </c>
-      <c r="AL20" s="3">
-        <v>12.516</v>
-      </c>
-      <c r="AM20" s="3">
-        <v>20.614999999999998</v>
-      </c>
-      <c r="AN20" s="3">
-        <v>20.622</v>
-      </c>
-      <c r="AO20" s="3">
         <v>21.629000000000001</v>
       </c>
-      <c r="AP20" s="3" t="s">
+      <c r="AK20" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2383,59 +2188,44 @@
       <c r="Y21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD21" s="3" t="s">
-        <v>27</v>
+      <c r="Z21" s="3">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>0.90100000000000002</v>
       </c>
       <c r="AE21" s="3">
-        <v>0.91500000000000004</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="AF21" s="3">
-        <v>0.51</v>
+        <v>1.5760000000000001</v>
       </c>
       <c r="AG21" s="3">
-        <v>0.67300000000000004</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="AH21" s="3">
-        <v>0.75</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="AI21" s="3">
-        <v>0.90100000000000002</v>
+        <v>1.024</v>
       </c>
       <c r="AJ21" s="3">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="AK21" s="3">
-        <v>1.5760000000000001</v>
-      </c>
-      <c r="AL21" s="3">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="AM21" s="3">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="AN21" s="3">
-        <v>1.024</v>
-      </c>
-      <c r="AO21" s="3">
         <v>0.79600000000000004</v>
       </c>
-      <c r="AP21" s="3" t="s">
+      <c r="AK21" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2511,59 +2301,44 @@
       <c r="Y22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD22" s="3" t="s">
-        <v>27</v>
+      <c r="Z22" s="3">
+        <v>12.269</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>13.388999999999999</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>13.266999999999999</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>12.506</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>14.78</v>
       </c>
       <c r="AE22" s="3">
-        <v>12.269</v>
+        <v>14.478</v>
       </c>
       <c r="AF22" s="3">
-        <v>13.388999999999999</v>
+        <v>13.45</v>
       </c>
       <c r="AG22" s="3">
-        <v>13.266999999999999</v>
+        <v>14.162000000000001</v>
       </c>
       <c r="AH22" s="3">
-        <v>12.506</v>
+        <v>16.484999999999999</v>
       </c>
       <c r="AI22" s="3">
-        <v>14.78</v>
+        <v>22.166</v>
       </c>
       <c r="AJ22" s="3">
-        <v>14.478</v>
-      </c>
-      <c r="AK22" s="3">
-        <v>13.45</v>
-      </c>
-      <c r="AL22" s="3">
-        <v>14.162000000000001</v>
-      </c>
-      <c r="AM22" s="3">
-        <v>16.484999999999999</v>
-      </c>
-      <c r="AN22" s="3">
-        <v>22.166</v>
-      </c>
-      <c r="AO22" s="3">
         <v>22.088000000000001</v>
       </c>
-      <c r="AP22" s="3" t="s">
+      <c r="AK22" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -2639,59 +2414,44 @@
       <c r="Y23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD23" s="3" t="s">
-        <v>27</v>
+      <c r="Z23" s="3">
+        <v>11.228</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>10.269</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>11.888</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>12.747</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>12.84</v>
       </c>
       <c r="AE23" s="3">
-        <v>11.228</v>
+        <v>14.619</v>
       </c>
       <c r="AF23" s="3">
-        <v>10.269</v>
+        <v>13.467000000000001</v>
       </c>
       <c r="AG23" s="3">
-        <v>11.888</v>
+        <v>17.978000000000002</v>
       </c>
       <c r="AH23" s="3">
-        <v>12.747</v>
+        <v>15.83</v>
       </c>
       <c r="AI23" s="3">
-        <v>12.84</v>
+        <v>19.821999999999999</v>
       </c>
       <c r="AJ23" s="3">
-        <v>14.619</v>
-      </c>
-      <c r="AK23" s="3">
-        <v>13.467000000000001</v>
-      </c>
-      <c r="AL23" s="3">
-        <v>17.978000000000002</v>
-      </c>
-      <c r="AM23" s="3">
-        <v>15.83</v>
-      </c>
-      <c r="AN23" s="3">
-        <v>19.821999999999999</v>
-      </c>
-      <c r="AO23" s="3">
         <v>16.745999999999999</v>
       </c>
-      <c r="AP23" s="3" t="s">
+      <c r="AK23" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2767,59 +2527,44 @@
       <c r="Y24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD24" s="3" t="s">
-        <v>27</v>
+      <c r="Z24" s="3">
+        <v>60.658000000000001</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>68.855999999999995</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>71.412000000000006</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>61.834000000000003</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>52.472000000000001</v>
       </c>
       <c r="AE24" s="3">
-        <v>60.658000000000001</v>
+        <v>57.296999999999997</v>
       </c>
       <c r="AF24" s="3">
-        <v>68.855999999999995</v>
+        <v>57.460999999999999</v>
       </c>
       <c r="AG24" s="3">
-        <v>71.412000000000006</v>
+        <v>48.378999999999998</v>
       </c>
       <c r="AH24" s="3">
-        <v>61.834000000000003</v>
+        <v>84.82</v>
       </c>
       <c r="AI24" s="3">
-        <v>52.472000000000001</v>
+        <v>88.75</v>
       </c>
       <c r="AJ24" s="3">
-        <v>57.296999999999997</v>
-      </c>
-      <c r="AK24" s="3">
-        <v>57.460999999999999</v>
-      </c>
-      <c r="AL24" s="3">
-        <v>48.378999999999998</v>
-      </c>
-      <c r="AM24" s="3">
-        <v>84.82</v>
-      </c>
-      <c r="AN24" s="3">
-        <v>88.75</v>
-      </c>
-      <c r="AO24" s="3">
         <v>87.905000000000001</v>
       </c>
-      <c r="AP24" s="3" t="s">
+      <c r="AK24" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2895,59 +2640,44 @@
       <c r="Y25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD25" s="3" t="s">
-        <v>27</v>
+      <c r="Z25" s="3">
+        <v>47.198999999999998</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>48.899000000000001</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>51.540999999999997</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>53.235999999999997</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>47.591000000000001</v>
       </c>
       <c r="AE25" s="3">
-        <v>47.198999999999998</v>
+        <v>49.968000000000004</v>
       </c>
       <c r="AF25" s="3">
-        <v>48.899000000000001</v>
+        <v>46.381</v>
       </c>
       <c r="AG25" s="3">
-        <v>51.540999999999997</v>
+        <v>42.273000000000003</v>
       </c>
       <c r="AH25" s="3">
-        <v>53.235999999999997</v>
+        <v>70.028000000000006</v>
       </c>
       <c r="AI25" s="3">
-        <v>47.591000000000001</v>
+        <v>70.587000000000003</v>
       </c>
       <c r="AJ25" s="3">
-        <v>49.968000000000004</v>
-      </c>
-      <c r="AK25" s="3">
-        <v>46.381</v>
-      </c>
-      <c r="AL25" s="3">
-        <v>42.273000000000003</v>
-      </c>
-      <c r="AM25" s="3">
-        <v>70.028000000000006</v>
-      </c>
-      <c r="AN25" s="3">
-        <v>70.587000000000003</v>
-      </c>
-      <c r="AO25" s="3">
         <v>67.748999999999995</v>
       </c>
-      <c r="AP25" s="3" t="s">
+      <c r="AK25" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -3023,59 +2753,44 @@
       <c r="Y26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD26" s="3" t="s">
-        <v>27</v>
+      <c r="Z26" s="3">
+        <v>38.503</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>45.037999999999997</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>33.874000000000002</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>44.457999999999998</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>38.963999999999999</v>
       </c>
       <c r="AE26" s="3">
-        <v>38.503</v>
+        <v>36.622</v>
       </c>
       <c r="AF26" s="3">
-        <v>45.037999999999997</v>
+        <v>41.884</v>
       </c>
       <c r="AG26" s="3">
-        <v>33.874000000000002</v>
+        <v>40.533000000000001</v>
       </c>
       <c r="AH26" s="3">
-        <v>44.457999999999998</v>
+        <v>64.009</v>
       </c>
       <c r="AI26" s="3">
-        <v>38.963999999999999</v>
+        <v>65.53</v>
       </c>
       <c r="AJ26" s="3">
-        <v>36.622</v>
-      </c>
-      <c r="AK26" s="3">
-        <v>41.884</v>
-      </c>
-      <c r="AL26" s="3">
-        <v>40.533000000000001</v>
-      </c>
-      <c r="AM26" s="3">
-        <v>64.009</v>
-      </c>
-      <c r="AN26" s="3">
-        <v>65.53</v>
-      </c>
-      <c r="AO26" s="3">
         <v>64.566999999999993</v>
       </c>
-      <c r="AP26" s="3" t="s">
+      <c r="AK26" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3151,59 +2866,44 @@
       <c r="Y27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD27" s="3" t="s">
-        <v>27</v>
+      <c r="Z27" s="3">
+        <v>8.8360000000000003</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>9.6460000000000008</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>10.364000000000001</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>11.342000000000001</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>11.88</v>
       </c>
       <c r="AE27" s="3">
-        <v>8.8360000000000003</v>
+        <v>11.694000000000001</v>
       </c>
       <c r="AF27" s="3">
-        <v>9.6460000000000008</v>
+        <v>12.319000000000001</v>
       </c>
       <c r="AG27" s="3">
-        <v>10.364000000000001</v>
+        <v>11.144</v>
       </c>
       <c r="AH27" s="3">
-        <v>11.342000000000001</v>
+        <v>17.869</v>
       </c>
       <c r="AI27" s="3">
-        <v>11.88</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="AJ27" s="3">
-        <v>11.694000000000001</v>
-      </c>
-      <c r="AK27" s="3">
-        <v>12.319000000000001</v>
-      </c>
-      <c r="AL27" s="3">
-        <v>11.144</v>
-      </c>
-      <c r="AM27" s="3">
-        <v>17.869</v>
-      </c>
-      <c r="AN27" s="3">
-        <v>18.149999999999999</v>
-      </c>
-      <c r="AO27" s="3">
         <v>16.344000000000001</v>
       </c>
-      <c r="AP27" s="3" t="s">
+      <c r="AK27" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -3279,59 +2979,44 @@
       <c r="Y28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD28" s="3" t="s">
-        <v>27</v>
+      <c r="Z28" s="3">
+        <v>18.167999999999999</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>14.211</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>15.38</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>19.236000000000001</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>19.009</v>
       </c>
       <c r="AE28" s="3">
-        <v>18.167999999999999</v>
+        <v>22.573</v>
       </c>
       <c r="AF28" s="3">
-        <v>14.211</v>
+        <v>25.431000000000001</v>
       </c>
       <c r="AG28" s="3">
-        <v>15.38</v>
+        <v>19.303999999999998</v>
       </c>
       <c r="AH28" s="3">
-        <v>19.236000000000001</v>
+        <v>39.088999999999999</v>
       </c>
       <c r="AI28" s="3">
-        <v>19.009</v>
+        <v>27.719000000000001</v>
       </c>
       <c r="AJ28" s="3">
-        <v>22.573</v>
-      </c>
-      <c r="AK28" s="3">
-        <v>25.431000000000001</v>
-      </c>
-      <c r="AL28" s="3">
-        <v>19.303999999999998</v>
-      </c>
-      <c r="AM28" s="3">
-        <v>39.088999999999999</v>
-      </c>
-      <c r="AN28" s="3">
-        <v>27.719000000000001</v>
-      </c>
-      <c r="AO28" s="3">
         <v>29.3</v>
       </c>
-      <c r="AP28" s="3" t="s">
+      <c r="AK28" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3407,59 +3092,44 @@
       <c r="Y29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD29" s="3" t="s">
-        <v>27</v>
+      <c r="Z29" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>1.841</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>1.841</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>2.2480000000000002</v>
       </c>
       <c r="AE29" s="3">
-        <v>1.1000000000000001</v>
+        <v>2.6869999999999998</v>
       </c>
       <c r="AF29" s="3">
-        <v>1.841</v>
+        <v>1.72</v>
       </c>
       <c r="AG29" s="3">
-        <v>0.92200000000000004</v>
+        <v>6.4160000000000004</v>
       </c>
       <c r="AH29" s="3">
-        <v>1.841</v>
+        <v>3.0259999999999998</v>
       </c>
       <c r="AI29" s="3">
-        <v>2.2480000000000002</v>
+        <v>1.4590000000000001</v>
       </c>
       <c r="AJ29" s="3">
-        <v>2.6869999999999998</v>
-      </c>
-      <c r="AK29" s="3">
-        <v>1.72</v>
-      </c>
-      <c r="AL29" s="3">
-        <v>6.4160000000000004</v>
-      </c>
-      <c r="AM29" s="3">
-        <v>3.0259999999999998</v>
-      </c>
-      <c r="AN29" s="3">
-        <v>1.4590000000000001</v>
-      </c>
-      <c r="AO29" s="3">
         <v>1.3939999999999999</v>
       </c>
-      <c r="AP29" s="3" t="s">
+      <c r="AK29" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -3535,59 +3205,44 @@
       <c r="Y30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD30" s="3" t="s">
-        <v>27</v>
+      <c r="Z30" s="3">
+        <v>1.548</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>2.2810000000000001</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>1.6950000000000001</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>1.909</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>1.4490000000000001</v>
       </c>
       <c r="AE30" s="3">
-        <v>1.548</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="AF30" s="3">
-        <v>2.2810000000000001</v>
+        <v>1.5229999999999999</v>
       </c>
       <c r="AG30" s="3">
-        <v>1.6950000000000001</v>
+        <v>1.101</v>
       </c>
       <c r="AH30" s="3">
-        <v>1.909</v>
+        <v>11.381</v>
       </c>
       <c r="AI30" s="3">
-        <v>1.4490000000000001</v>
+        <v>2.9220000000000002</v>
       </c>
       <c r="AJ30" s="3">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="AK30" s="3">
-        <v>1.5229999999999999</v>
-      </c>
-      <c r="AL30" s="3">
-        <v>1.101</v>
-      </c>
-      <c r="AM30" s="3">
-        <v>11.381</v>
-      </c>
-      <c r="AN30" s="3">
-        <v>2.9220000000000002</v>
-      </c>
-      <c r="AO30" s="3">
         <v>5.1109999999999998</v>
       </c>
-      <c r="AP30" s="3" t="s">
+      <c r="AK30" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -3663,59 +3318,44 @@
       <c r="Y31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD31" s="3" t="s">
-        <v>27</v>
+      <c r="Z31" s="3">
+        <v>304.70999999999998</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>342.09</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>325.72000000000003</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>298.79599999999999</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>334.15699999999998</v>
       </c>
       <c r="AE31" s="3">
-        <v>304.70999999999998</v>
+        <v>360.14400000000001</v>
       </c>
       <c r="AF31" s="3">
-        <v>342.09</v>
+        <v>348.149</v>
       </c>
       <c r="AG31" s="3">
-        <v>325.72000000000003</v>
+        <v>366.27</v>
       </c>
       <c r="AH31" s="3">
-        <v>298.79599999999999</v>
+        <v>350.85599999999999</v>
       </c>
       <c r="AI31" s="3">
-        <v>334.15699999999998</v>
+        <v>386.87</v>
       </c>
       <c r="AJ31" s="3">
-        <v>360.14400000000001</v>
-      </c>
-      <c r="AK31" s="3">
-        <v>348.149</v>
-      </c>
-      <c r="AL31" s="3">
-        <v>366.27</v>
-      </c>
-      <c r="AM31" s="3">
-        <v>350.85599999999999</v>
-      </c>
-      <c r="AN31" s="3">
-        <v>386.87</v>
-      </c>
-      <c r="AO31" s="3">
         <v>407.77100000000002</v>
       </c>
-      <c r="AP31" s="3" t="s">
+      <c r="AK31" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -3791,59 +3431,44 @@
       <c r="Y32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD32" s="3" t="s">
-        <v>27</v>
+      <c r="Z32" s="3">
+        <v>13.875</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>8.5869999999999997</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>6.7279999999999998</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>14.191000000000001</v>
       </c>
       <c r="AE32" s="3">
-        <v>13.875</v>
+        <v>15.933</v>
       </c>
       <c r="AF32" s="3">
-        <v>20.329999999999998</v>
+        <v>12.316000000000001</v>
       </c>
       <c r="AG32" s="3">
-        <v>8.5869999999999997</v>
+        <v>19.181000000000001</v>
       </c>
       <c r="AH32" s="3">
-        <v>6.7279999999999998</v>
+        <v>16.887</v>
       </c>
       <c r="AI32" s="3">
-        <v>14.191000000000001</v>
+        <v>10.858000000000001</v>
       </c>
       <c r="AJ32" s="3">
-        <v>15.933</v>
-      </c>
-      <c r="AK32" s="3">
-        <v>12.316000000000001</v>
-      </c>
-      <c r="AL32" s="3">
-        <v>19.181000000000001</v>
-      </c>
-      <c r="AM32" s="3">
-        <v>16.887</v>
-      </c>
-      <c r="AN32" s="3">
-        <v>10.858000000000001</v>
-      </c>
-      <c r="AO32" s="3">
         <v>9.11</v>
       </c>
-      <c r="AP32" s="3" t="s">
+      <c r="AK32" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -3919,59 +3544,44 @@
       <c r="Y33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD33" s="3" t="s">
-        <v>27</v>
+      <c r="Z33" s="3">
+        <v>3.6179999999999999</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>4.3330000000000002</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>3.6389999999999998</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>2.5259999999999998</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>3.5779999999999998</v>
       </c>
       <c r="AE33" s="3">
-        <v>3.6179999999999999</v>
+        <v>4.1859999999999999</v>
       </c>
       <c r="AF33" s="3">
-        <v>4.3330000000000002</v>
+        <v>3.1960000000000002</v>
       </c>
       <c r="AG33" s="3">
-        <v>3.6389999999999998</v>
+        <v>2.2519999999999998</v>
       </c>
       <c r="AH33" s="3">
-        <v>2.5259999999999998</v>
+        <v>3.754</v>
       </c>
       <c r="AI33" s="3">
-        <v>3.5779999999999998</v>
+        <v>4.3090000000000002</v>
       </c>
       <c r="AJ33" s="3">
-        <v>4.1859999999999999</v>
-      </c>
-      <c r="AK33" s="3">
-        <v>3.1960000000000002</v>
-      </c>
-      <c r="AL33" s="3">
-        <v>2.2519999999999998</v>
-      </c>
-      <c r="AM33" s="3">
-        <v>3.754</v>
-      </c>
-      <c r="AN33" s="3">
-        <v>4.3090000000000002</v>
-      </c>
-      <c r="AO33" s="3">
         <v>3.762</v>
       </c>
-      <c r="AP33" s="3" t="s">
+      <c r="AK33" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -4047,59 +3657,44 @@
       <c r="Y34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD34" s="3" t="s">
-        <v>27</v>
+      <c r="Z34" s="3">
+        <v>43.415999999999997</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>43.058</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>44.893000000000001</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>43.929000000000002</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>44.24</v>
       </c>
       <c r="AE34" s="3">
-        <v>43.415999999999997</v>
+        <v>47.454999999999998</v>
       </c>
       <c r="AF34" s="3">
-        <v>43.058</v>
+        <v>35.869999999999997</v>
       </c>
       <c r="AG34" s="3">
-        <v>44.893000000000001</v>
+        <v>43.667999999999999</v>
       </c>
       <c r="AH34" s="3">
-        <v>43.929000000000002</v>
+        <v>41.484999999999999</v>
       </c>
       <c r="AI34" s="3">
-        <v>44.24</v>
+        <v>40.01</v>
       </c>
       <c r="AJ34" s="3">
-        <v>47.454999999999998</v>
-      </c>
-      <c r="AK34" s="3">
-        <v>35.869999999999997</v>
-      </c>
-      <c r="AL34" s="3">
-        <v>43.667999999999999</v>
-      </c>
-      <c r="AM34" s="3">
-        <v>41.484999999999999</v>
-      </c>
-      <c r="AN34" s="3">
-        <v>40.01</v>
-      </c>
-      <c r="AO34" s="3">
         <v>36.25</v>
       </c>
-      <c r="AP34" s="3" t="s">
+      <c r="AK34" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -4175,59 +3770,44 @@
       <c r="Y35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD35" s="3" t="s">
-        <v>27</v>
+      <c r="Z35" s="3">
+        <v>6.9550000000000001</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>5.8259999999999996</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>5.6779999999999999</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>5.2610000000000001</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>5.5110000000000001</v>
       </c>
       <c r="AE35" s="3">
-        <v>6.9550000000000001</v>
+        <v>6.6159999999999997</v>
       </c>
       <c r="AF35" s="3">
-        <v>5.8259999999999996</v>
+        <v>6.3109999999999999</v>
       </c>
       <c r="AG35" s="3">
-        <v>5.6779999999999999</v>
+        <v>5.2969999999999997</v>
       </c>
       <c r="AH35" s="3">
-        <v>5.2610000000000001</v>
+        <v>7.8129999999999997</v>
       </c>
       <c r="AI35" s="3">
-        <v>5.5110000000000001</v>
+        <v>8.9819999999999993</v>
       </c>
       <c r="AJ35" s="3">
-        <v>6.6159999999999997</v>
-      </c>
-      <c r="AK35" s="3">
-        <v>6.3109999999999999</v>
-      </c>
-      <c r="AL35" s="3">
-        <v>5.2969999999999997</v>
-      </c>
-      <c r="AM35" s="3">
-        <v>7.8129999999999997</v>
-      </c>
-      <c r="AN35" s="3">
-        <v>8.9819999999999993</v>
-      </c>
-      <c r="AO35" s="3">
         <v>10.523999999999999</v>
       </c>
-      <c r="AP35" s="3" t="s">
+      <c r="AK35" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -4303,59 +3883,44 @@
       <c r="Y36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD36" s="3" t="s">
-        <v>27</v>
+      <c r="Z36" s="3">
+        <v>3.605</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>4.101</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>3.3860000000000001</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>4.4420000000000002</v>
+      </c>
+      <c r="AD36" s="3">
+        <v>6.7450000000000001</v>
       </c>
       <c r="AE36" s="3">
-        <v>3.605</v>
+        <v>4.2729999999999997</v>
       </c>
       <c r="AF36" s="3">
-        <v>4.101</v>
+        <v>4.3780000000000001</v>
       </c>
       <c r="AG36" s="3">
-        <v>3.3860000000000001</v>
+        <v>4.0419999999999998</v>
       </c>
       <c r="AH36" s="3">
-        <v>4.4420000000000002</v>
+        <v>4.0510000000000002</v>
       </c>
       <c r="AI36" s="3">
-        <v>6.7450000000000001</v>
+        <v>3.843</v>
       </c>
       <c r="AJ36" s="3">
-        <v>4.2729999999999997</v>
-      </c>
-      <c r="AK36" s="3">
-        <v>4.3780000000000001</v>
-      </c>
-      <c r="AL36" s="3">
-        <v>4.0419999999999998</v>
-      </c>
-      <c r="AM36" s="3">
-        <v>4.0510000000000002</v>
-      </c>
-      <c r="AN36" s="3">
-        <v>3.843</v>
-      </c>
-      <c r="AO36" s="3">
         <v>3.8170000000000002</v>
       </c>
-      <c r="AP36" s="3" t="s">
+      <c r="AK36" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -4431,59 +3996,44 @@
       <c r="Y37" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD37" s="3" t="s">
-        <v>27</v>
+      <c r="Z37" s="3">
+        <v>29.024000000000001</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>38.997999999999998</v>
+      </c>
+      <c r="AB37" s="3">
+        <v>35.585000000000001</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>28.244</v>
+      </c>
+      <c r="AD37" s="3">
+        <v>38.570999999999998</v>
       </c>
       <c r="AE37" s="3">
-        <v>29.024000000000001</v>
+        <v>46.551000000000002</v>
       </c>
       <c r="AF37" s="3">
-        <v>38.997999999999998</v>
+        <v>41.497</v>
       </c>
       <c r="AG37" s="3">
-        <v>35.585000000000001</v>
+        <v>45.963000000000001</v>
       </c>
       <c r="AH37" s="3">
-        <v>28.244</v>
+        <v>38.773000000000003</v>
       </c>
       <c r="AI37" s="3">
-        <v>38.570999999999998</v>
+        <v>40.677</v>
       </c>
       <c r="AJ37" s="3">
-        <v>46.551000000000002</v>
-      </c>
-      <c r="AK37" s="3">
-        <v>41.497</v>
-      </c>
-      <c r="AL37" s="3">
-        <v>45.963000000000001</v>
-      </c>
-      <c r="AM37" s="3">
-        <v>38.773000000000003</v>
-      </c>
-      <c r="AN37" s="3">
-        <v>40.677</v>
-      </c>
-      <c r="AO37" s="3">
         <v>45.015000000000001</v>
       </c>
-      <c r="AP37" s="3" t="s">
+      <c r="AK37" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -4559,59 +4109,44 @@
       <c r="Y38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD38" s="3" t="s">
-        <v>27</v>
+      <c r="Z38" s="3">
+        <v>40.762999999999998</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>43.627000000000002</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>46.837000000000003</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>42.935000000000002</v>
+      </c>
+      <c r="AD38" s="3">
+        <v>49.536999999999999</v>
       </c>
       <c r="AE38" s="3">
-        <v>40.762999999999998</v>
+        <v>52.779000000000003</v>
       </c>
       <c r="AF38" s="3">
-        <v>43.627000000000002</v>
+        <v>59.031999999999996</v>
       </c>
       <c r="AG38" s="3">
-        <v>46.837000000000003</v>
+        <v>62.206000000000003</v>
       </c>
       <c r="AH38" s="3">
-        <v>42.935000000000002</v>
+        <v>59.613</v>
       </c>
       <c r="AI38" s="3">
-        <v>49.536999999999999</v>
+        <v>64.846000000000004</v>
       </c>
       <c r="AJ38" s="3">
-        <v>52.779000000000003</v>
-      </c>
-      <c r="AK38" s="3">
-        <v>59.031999999999996</v>
-      </c>
-      <c r="AL38" s="3">
-        <v>62.206000000000003</v>
-      </c>
-      <c r="AM38" s="3">
-        <v>59.613</v>
-      </c>
-      <c r="AN38" s="3">
-        <v>64.846000000000004</v>
-      </c>
-      <c r="AO38" s="3">
         <v>78.804000000000002</v>
       </c>
-      <c r="AP38" s="3" t="s">
+      <c r="AK38" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -4687,59 +4222,44 @@
       <c r="Y39" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD39" s="3" t="s">
-        <v>27</v>
+      <c r="Z39" s="3">
+        <v>14.31</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>17.998000000000001</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>19.666</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>19.763999999999999</v>
+      </c>
+      <c r="AD39" s="3">
+        <v>21.277000000000001</v>
       </c>
       <c r="AE39" s="3">
-        <v>14.31</v>
+        <v>23.753</v>
       </c>
       <c r="AF39" s="3">
-        <v>17.998000000000001</v>
+        <v>23.896999999999998</v>
       </c>
       <c r="AG39" s="3">
-        <v>19.666</v>
+        <v>23.562999999999999</v>
       </c>
       <c r="AH39" s="3">
-        <v>19.763999999999999</v>
+        <v>21.742000000000001</v>
       </c>
       <c r="AI39" s="3">
-        <v>21.277000000000001</v>
+        <v>24.835000000000001</v>
       </c>
       <c r="AJ39" s="3">
-        <v>23.753</v>
-      </c>
-      <c r="AK39" s="3">
-        <v>23.896999999999998</v>
-      </c>
-      <c r="AL39" s="3">
-        <v>23.562999999999999</v>
-      </c>
-      <c r="AM39" s="3">
-        <v>21.742000000000001</v>
-      </c>
-      <c r="AN39" s="3">
-        <v>24.835000000000001</v>
-      </c>
-      <c r="AO39" s="3">
         <v>31.542000000000002</v>
       </c>
-      <c r="AP39" s="3" t="s">
+      <c r="AK39" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -4815,59 +4335,44 @@
       <c r="Y40" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD40" s="3" t="s">
-        <v>27</v>
+      <c r="Z40" s="3">
+        <v>10.571999999999999</v>
+      </c>
+      <c r="AA40" s="3">
+        <v>10.837999999999999</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>11.032</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>8.4209999999999994</v>
+      </c>
+      <c r="AD40" s="3">
+        <v>10.590999999999999</v>
       </c>
       <c r="AE40" s="3">
-        <v>10.571999999999999</v>
+        <v>9.68</v>
       </c>
       <c r="AF40" s="3">
-        <v>10.837999999999999</v>
+        <v>11.481999999999999</v>
       </c>
       <c r="AG40" s="3">
-        <v>11.032</v>
+        <v>13.504</v>
       </c>
       <c r="AH40" s="3">
-        <v>8.4209999999999994</v>
+        <v>12.162000000000001</v>
       </c>
       <c r="AI40" s="3">
-        <v>10.590999999999999</v>
+        <v>13.491</v>
       </c>
       <c r="AJ40" s="3">
-        <v>9.68</v>
-      </c>
-      <c r="AK40" s="3">
-        <v>11.481999999999999</v>
-      </c>
-      <c r="AL40" s="3">
-        <v>13.504</v>
-      </c>
-      <c r="AM40" s="3">
-        <v>12.162000000000001</v>
-      </c>
-      <c r="AN40" s="3">
-        <v>13.491</v>
-      </c>
-      <c r="AO40" s="3">
         <v>18.041</v>
       </c>
-      <c r="AP40" s="3" t="s">
+      <c r="AK40" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -4943,59 +4448,44 @@
       <c r="Y41" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD41" s="3" t="s">
-        <v>27</v>
+      <c r="Z41" s="3">
+        <v>6.8929999999999998</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>9.9629999999999992</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>9.5719999999999992</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>9.6359999999999992</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>7.3150000000000004</v>
       </c>
       <c r="AE41" s="3">
-        <v>6.8929999999999998</v>
+        <v>9.4939999999999998</v>
       </c>
       <c r="AF41" s="3">
-        <v>9.9629999999999992</v>
+        <v>11.954000000000001</v>
       </c>
       <c r="AG41" s="3">
-        <v>9.5719999999999992</v>
+        <v>13.977</v>
       </c>
       <c r="AH41" s="3">
-        <v>9.6359999999999992</v>
+        <v>13.893000000000001</v>
       </c>
       <c r="AI41" s="3">
-        <v>7.3150000000000004</v>
+        <v>12.417</v>
       </c>
       <c r="AJ41" s="3">
-        <v>9.4939999999999998</v>
-      </c>
-      <c r="AK41" s="3">
-        <v>11.954000000000001</v>
-      </c>
-      <c r="AL41" s="3">
-        <v>13.977</v>
-      </c>
-      <c r="AM41" s="3">
-        <v>13.893000000000001</v>
-      </c>
-      <c r="AN41" s="3">
-        <v>12.417</v>
-      </c>
-      <c r="AO41" s="3">
         <v>10.089</v>
       </c>
-      <c r="AP41" s="3" t="s">
+      <c r="AK41" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -5071,59 +4561,44 @@
       <c r="Y42" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD42" s="3" t="s">
-        <v>27</v>
+      <c r="Z42" s="3">
+        <v>6.758</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>7.56</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>5.9420000000000002</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>5.8739999999999997</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>6.4969999999999999</v>
       </c>
       <c r="AE42" s="3">
-        <v>6.758</v>
+        <v>6.2809999999999997</v>
       </c>
       <c r="AF42" s="3">
-        <v>7.56</v>
+        <v>7.0759999999999996</v>
       </c>
       <c r="AG42" s="3">
-        <v>5.9420000000000002</v>
+        <v>6.2759999999999998</v>
       </c>
       <c r="AH42" s="3">
-        <v>5.8739999999999997</v>
+        <v>6.2190000000000003</v>
       </c>
       <c r="AI42" s="3">
-        <v>6.4969999999999999</v>
+        <v>8.9079999999999995</v>
       </c>
       <c r="AJ42" s="3">
-        <v>6.2809999999999997</v>
-      </c>
-      <c r="AK42" s="3">
-        <v>7.0759999999999996</v>
-      </c>
-      <c r="AL42" s="3">
-        <v>6.2759999999999998</v>
-      </c>
-      <c r="AM42" s="3">
-        <v>6.2190000000000003</v>
-      </c>
-      <c r="AN42" s="3">
-        <v>8.9079999999999995</v>
-      </c>
-      <c r="AO42" s="3">
         <v>10.63</v>
       </c>
-      <c r="AP42" s="3" t="s">
+      <c r="AK42" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -5199,59 +4674,44 @@
       <c r="Y43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD43" s="3" t="s">
-        <v>27</v>
+      <c r="Z43" s="3">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0.622</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0.158</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0.253</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0.32400000000000001</v>
       </c>
       <c r="AE43" s="3">
-        <v>0.73899999999999999</v>
+        <v>0.219</v>
       </c>
       <c r="AF43" s="3">
-        <v>0.622</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="AG43" s="3">
-        <v>0.158</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="AH43" s="3">
-        <v>0.253</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="AI43" s="3">
-        <v>0.32400000000000001</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="AJ43" s="3">
-        <v>0.219</v>
-      </c>
-      <c r="AK43" s="3">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="AL43" s="3">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="AM43" s="3">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="AN43" s="3">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="AO43" s="3">
         <v>1.016</v>
       </c>
-      <c r="AP43" s="3" t="s">
+      <c r="AK43" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -5327,59 +4787,44 @@
       <c r="Y44" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA44" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB44" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC44" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD44" s="3" t="s">
-        <v>27</v>
+      <c r="Z44" s="3">
+        <v>5.57</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>6.9870000000000001</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>6.5449999999999999</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>5.476</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>6.6269999999999998</v>
       </c>
       <c r="AE44" s="3">
-        <v>5.57</v>
+        <v>7.9080000000000004</v>
       </c>
       <c r="AF44" s="3">
-        <v>6.9870000000000001</v>
+        <v>6.1630000000000003</v>
       </c>
       <c r="AG44" s="3">
-        <v>6.5449999999999999</v>
+        <v>10.018000000000001</v>
       </c>
       <c r="AH44" s="3">
-        <v>5.476</v>
+        <v>10.726000000000001</v>
       </c>
       <c r="AI44" s="3">
-        <v>6.6269999999999998</v>
+        <v>12.308</v>
       </c>
       <c r="AJ44" s="3">
-        <v>7.9080000000000004</v>
-      </c>
-      <c r="AK44" s="3">
-        <v>6.1630000000000003</v>
-      </c>
-      <c r="AL44" s="3">
-        <v>10.018000000000001</v>
-      </c>
-      <c r="AM44" s="3">
-        <v>10.726000000000001</v>
-      </c>
-      <c r="AN44" s="3">
-        <v>12.308</v>
-      </c>
-      <c r="AO44" s="3">
         <v>9.9600000000000009</v>
       </c>
-      <c r="AP44" s="3" t="s">
+      <c r="AK44" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -5455,59 +4900,44 @@
       <c r="Y45" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA45" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB45" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC45" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD45" s="3" t="s">
-        <v>27</v>
+      <c r="Z45" s="3">
+        <v>14.353</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>13.138999999999999</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>10.968999999999999</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>10.657</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>10.955</v>
       </c>
       <c r="AE45" s="3">
-        <v>14.353</v>
+        <v>13.856</v>
       </c>
       <c r="AF45" s="3">
-        <v>13.138999999999999</v>
+        <v>10.028</v>
       </c>
       <c r="AG45" s="3">
-        <v>10.968999999999999</v>
+        <v>14.395</v>
       </c>
       <c r="AH45" s="3">
-        <v>10.657</v>
+        <v>14.959</v>
       </c>
       <c r="AI45" s="3">
-        <v>10.955</v>
+        <v>20.231000000000002</v>
       </c>
       <c r="AJ45" s="3">
-        <v>13.856</v>
-      </c>
-      <c r="AK45" s="3">
-        <v>10.028</v>
-      </c>
-      <c r="AL45" s="3">
-        <v>14.395</v>
-      </c>
-      <c r="AM45" s="3">
-        <v>14.959</v>
-      </c>
-      <c r="AN45" s="3">
-        <v>20.231000000000002</v>
-      </c>
-      <c r="AO45" s="3">
         <v>15.888</v>
       </c>
-      <c r="AP45" s="3" t="s">
+      <c r="AK45" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -5583,59 +5013,44 @@
       <c r="Y46" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD46" s="3" t="s">
-        <v>27</v>
+      <c r="Z46" s="3">
+        <v>15.161</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>16.667000000000002</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>20.706</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>22.085999999999999</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>24.785</v>
       </c>
       <c r="AE46" s="3">
-        <v>15.161</v>
+        <v>21.914000000000001</v>
       </c>
       <c r="AF46" s="3">
-        <v>16.667000000000002</v>
+        <v>24.236999999999998</v>
       </c>
       <c r="AG46" s="3">
-        <v>20.706</v>
+        <v>23.986999999999998</v>
       </c>
       <c r="AH46" s="3">
-        <v>22.085999999999999</v>
+        <v>23.504999999999999</v>
       </c>
       <c r="AI46" s="3">
-        <v>24.785</v>
+        <v>24.742000000000001</v>
       </c>
       <c r="AJ46" s="3">
-        <v>21.914000000000001</v>
-      </c>
-      <c r="AK46" s="3">
-        <v>24.236999999999998</v>
-      </c>
-      <c r="AL46" s="3">
-        <v>23.986999999999998</v>
-      </c>
-      <c r="AM46" s="3">
-        <v>23.504999999999999</v>
-      </c>
-      <c r="AN46" s="3">
-        <v>24.742000000000001</v>
-      </c>
-      <c r="AO46" s="3">
         <v>33.112000000000002</v>
       </c>
-      <c r="AP46" s="3" t="s">
+      <c r="AK46" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -5711,59 +5126,44 @@
       <c r="Y47" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD47" s="3" t="s">
-        <v>27</v>
+      <c r="Z47" s="3">
+        <v>36.698</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>38.118000000000002</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>38.784999999999997</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>36.420999999999999</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>35.384</v>
       </c>
       <c r="AE47" s="3">
-        <v>36.698</v>
+        <v>34.106999999999999</v>
       </c>
       <c r="AF47" s="3">
-        <v>38.118000000000002</v>
+        <v>39.442</v>
       </c>
       <c r="AG47" s="3">
-        <v>38.784999999999997</v>
+        <v>36.618000000000002</v>
       </c>
       <c r="AH47" s="3">
-        <v>36.420999999999999</v>
+        <v>35.488</v>
       </c>
       <c r="AI47" s="3">
-        <v>35.384</v>
+        <v>39.055</v>
       </c>
       <c r="AJ47" s="3">
-        <v>34.106999999999999</v>
-      </c>
-      <c r="AK47" s="3">
-        <v>39.442</v>
-      </c>
-      <c r="AL47" s="3">
-        <v>36.618000000000002</v>
-      </c>
-      <c r="AM47" s="3">
-        <v>35.488</v>
-      </c>
-      <c r="AN47" s="3">
-        <v>39.055</v>
-      </c>
-      <c r="AO47" s="3">
         <v>44.225999999999999</v>
       </c>
-      <c r="AP47" s="3" t="s">
+      <c r="AK47" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -5839,59 +5239,44 @@
       <c r="Y48" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD48" s="3" t="s">
-        <v>27</v>
+      <c r="Z48" s="3">
+        <v>22.786000000000001</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>27.78</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>23.594000000000001</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>18.591999999999999</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>18.806000000000001</v>
       </c>
       <c r="AE48" s="3">
-        <v>22.786000000000001</v>
+        <v>23.33</v>
       </c>
       <c r="AF48" s="3">
-        <v>27.78</v>
+        <v>20.13</v>
       </c>
       <c r="AG48" s="3">
-        <v>23.594000000000001</v>
+        <v>19.274000000000001</v>
       </c>
       <c r="AH48" s="3">
-        <v>18.591999999999999</v>
+        <v>21.289000000000001</v>
       </c>
       <c r="AI48" s="3">
-        <v>18.806000000000001</v>
+        <v>24.132999999999999</v>
       </c>
       <c r="AJ48" s="3">
-        <v>23.33</v>
-      </c>
-      <c r="AK48" s="3">
-        <v>20.13</v>
-      </c>
-      <c r="AL48" s="3">
-        <v>19.274000000000001</v>
-      </c>
-      <c r="AM48" s="3">
-        <v>21.289000000000001</v>
-      </c>
-      <c r="AN48" s="3">
-        <v>24.132999999999999</v>
-      </c>
-      <c r="AO48" s="3">
         <v>25.606999999999999</v>
       </c>
-      <c r="AP48" s="3" t="s">
+      <c r="AK48" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -5967,59 +5352,44 @@
       <c r="Y49" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD49" s="3" t="s">
-        <v>27</v>
+      <c r="Z49" s="3">
+        <v>6.6639999999999997</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>5.9509999999999996</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>4.7450000000000001</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>4.3520000000000003</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>5.5739999999999998</v>
       </c>
       <c r="AE49" s="3">
-        <v>6.6639999999999997</v>
+        <v>4.9509999999999996</v>
       </c>
       <c r="AF49" s="3">
-        <v>5.9509999999999996</v>
+        <v>4.585</v>
       </c>
       <c r="AG49" s="3">
-        <v>4.7450000000000001</v>
+        <v>4.8079999999999998</v>
       </c>
       <c r="AH49" s="3">
-        <v>4.3520000000000003</v>
+        <v>3.827</v>
       </c>
       <c r="AI49" s="3">
-        <v>5.5739999999999998</v>
+        <v>5.1349999999999998</v>
       </c>
       <c r="AJ49" s="3">
-        <v>4.9509999999999996</v>
-      </c>
-      <c r="AK49" s="3">
-        <v>4.585</v>
-      </c>
-      <c r="AL49" s="3">
-        <v>4.8079999999999998</v>
-      </c>
-      <c r="AM49" s="3">
-        <v>3.827</v>
-      </c>
-      <c r="AN49" s="3">
-        <v>5.1349999999999998</v>
-      </c>
-      <c r="AO49" s="3">
         <v>3.72</v>
       </c>
-      <c r="AP49" s="3" t="s">
+      <c r="AK49" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -6095,59 +5465,44 @@
       <c r="Y50" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z50" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA50" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB50" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC50" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD50" s="3" t="s">
-        <v>27</v>
+      <c r="Z50" s="3">
+        <v>11.917999999999999</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>12.47</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>11.082000000000001</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>12.502000000000001</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>12.093</v>
       </c>
       <c r="AE50" s="3">
-        <v>11.917999999999999</v>
+        <v>15.744</v>
       </c>
       <c r="AF50" s="3">
-        <v>12.47</v>
+        <v>16.789000000000001</v>
       </c>
       <c r="AG50" s="3">
-        <v>11.082000000000001</v>
+        <v>10.069000000000001</v>
       </c>
       <c r="AH50" s="3">
-        <v>12.502000000000001</v>
+        <v>9.5329999999999995</v>
       </c>
       <c r="AI50" s="3">
-        <v>12.093</v>
+        <v>13.694000000000001</v>
       </c>
       <c r="AJ50" s="3">
-        <v>15.744</v>
-      </c>
-      <c r="AK50" s="3">
-        <v>16.789000000000001</v>
-      </c>
-      <c r="AL50" s="3">
-        <v>10.069000000000001</v>
-      </c>
-      <c r="AM50" s="3">
-        <v>9.5329999999999995</v>
-      </c>
-      <c r="AN50" s="3">
-        <v>13.694000000000001</v>
-      </c>
-      <c r="AO50" s="3">
         <v>11.795</v>
       </c>
-      <c r="AP50" s="3" t="s">
+      <c r="AK50" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -6223,59 +5578,44 @@
       <c r="Y51" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z51" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA51" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB51" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC51" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD51" s="3" t="s">
-        <v>27</v>
+      <c r="Z51" s="3">
+        <v>5.0170000000000003</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>7.3949999999999996</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>9.34</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>7.1719999999999997</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>8.5540000000000003</v>
       </c>
       <c r="AE51" s="3">
-        <v>5.0170000000000003</v>
+        <v>7.4390000000000001</v>
       </c>
       <c r="AF51" s="3">
-        <v>7.3949999999999996</v>
+        <v>6.0389999999999997</v>
       </c>
       <c r="AG51" s="3">
-        <v>9.34</v>
+        <v>4.2240000000000002</v>
       </c>
       <c r="AH51" s="3">
-        <v>7.1719999999999997</v>
+        <v>2.4289999999999998</v>
       </c>
       <c r="AI51" s="3">
-        <v>8.5540000000000003</v>
+        <v>8.1519999999999992</v>
       </c>
       <c r="AJ51" s="3">
-        <v>7.4390000000000001</v>
-      </c>
-      <c r="AK51" s="3">
-        <v>6.0389999999999997</v>
-      </c>
-      <c r="AL51" s="3">
-        <v>4.2240000000000002</v>
-      </c>
-      <c r="AM51" s="3">
-        <v>2.4289999999999998</v>
-      </c>
-      <c r="AN51" s="3">
-        <v>8.1519999999999992</v>
-      </c>
-      <c r="AO51" s="3">
         <v>0.97299999999999998</v>
       </c>
-      <c r="AP51" s="3" t="s">
+      <c r="AK51" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -6351,59 +5691,44 @@
       <c r="Y52" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD52" s="3" t="s">
-        <v>27</v>
+      <c r="Z52" s="3">
+        <v>6.0149999999999997</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>6.3289999999999997</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>4.9790000000000001</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>3.5249999999999999</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>3.0019999999999998</v>
       </c>
       <c r="AE52" s="3">
-        <v>6.0149999999999997</v>
+        <v>3.6749999999999998</v>
       </c>
       <c r="AF52" s="3">
-        <v>6.3289999999999997</v>
+        <v>3.3759999999999999</v>
       </c>
       <c r="AG52" s="3">
-        <v>4.9790000000000001</v>
+        <v>2.4039999999999999</v>
       </c>
       <c r="AH52" s="3">
-        <v>3.5249999999999999</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="AI52" s="3">
-        <v>3.0019999999999998</v>
+        <v>5.61</v>
       </c>
       <c r="AJ52" s="3">
-        <v>3.6749999999999998</v>
-      </c>
-      <c r="AK52" s="3">
-        <v>3.3759999999999999</v>
-      </c>
-      <c r="AL52" s="3">
-        <v>2.4039999999999999</v>
-      </c>
-      <c r="AM52" s="3">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="AN52" s="3">
-        <v>5.61</v>
-      </c>
-      <c r="AO52" s="3">
         <v>3.89</v>
       </c>
-      <c r="AP52" s="3" t="s">
+      <c r="AK52" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -6485,53 +5810,38 @@
       <c r="AA53" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB53" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC53" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD53" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE53" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF53" s="3" t="s">
-        <v>27</v>
+      <c r="AB53" s="3">
+        <v>869.79899999999998</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>847.101</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>832.17899999999997</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>800.17899999999997</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>794.07600000000002</v>
       </c>
       <c r="AG53" s="3">
-        <v>869.79899999999998</v>
+        <v>872.39300000000003</v>
       </c>
       <c r="AH53" s="3">
-        <v>847.101</v>
+        <v>834.19</v>
       </c>
       <c r="AI53" s="3">
-        <v>832.17899999999997</v>
+        <v>843.44500000000005</v>
       </c>
       <c r="AJ53" s="3">
-        <v>800.17899999999997</v>
-      </c>
-      <c r="AK53" s="3">
-        <v>794.07600000000002</v>
-      </c>
-      <c r="AL53" s="3">
-        <v>872.39300000000003</v>
-      </c>
-      <c r="AM53" s="3">
-        <v>834.19</v>
-      </c>
-      <c r="AN53" s="3">
-        <v>843.44500000000005</v>
-      </c>
-      <c r="AO53" s="3">
         <v>862.33199999999999</v>
       </c>
-      <c r="AP53" s="3" t="s">
+      <c r="AK53" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -6613,53 +5923,38 @@
       <c r="AA54" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC54" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD54" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE54" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF54" s="3" t="s">
-        <v>27</v>
+      <c r="AB54" s="3">
+        <v>206.5</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>196.2</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>201.85599999999999</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>180.80099999999999</v>
+      </c>
+      <c r="AF54" s="3">
+        <v>194.191</v>
       </c>
       <c r="AG54" s="3">
-        <v>206.5</v>
+        <v>182.845</v>
       </c>
       <c r="AH54" s="3">
-        <v>196.2</v>
+        <v>175.851</v>
       </c>
       <c r="AI54" s="3">
-        <v>201.85599999999999</v>
+        <v>181.184</v>
       </c>
       <c r="AJ54" s="3">
-        <v>180.80099999999999</v>
-      </c>
-      <c r="AK54" s="3">
-        <v>194.191</v>
-      </c>
-      <c r="AL54" s="3">
-        <v>182.845</v>
-      </c>
-      <c r="AM54" s="3">
-        <v>175.851</v>
-      </c>
-      <c r="AN54" s="3">
-        <v>181.184</v>
-      </c>
-      <c r="AO54" s="3">
         <v>179.30799999999999</v>
       </c>
-      <c r="AP54" s="3" t="s">
+      <c r="AK54" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -6741,53 +6036,38 @@
       <c r="AA55" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB55" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC55" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD55" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE55" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF55" s="3" t="s">
-        <v>27</v>
+      <c r="AB55" s="3">
+        <v>2.8130000000000002</v>
+      </c>
+      <c r="AC55" s="3">
+        <v>2.044</v>
+      </c>
+      <c r="AD55" s="3">
+        <v>1.857</v>
+      </c>
+      <c r="AE55" s="3">
+        <v>2.7189999999999999</v>
+      </c>
+      <c r="AF55" s="3">
+        <v>1.861</v>
       </c>
       <c r="AG55" s="3">
-        <v>2.8130000000000002</v>
+        <v>1.008</v>
       </c>
       <c r="AH55" s="3">
-        <v>2.044</v>
+        <v>1.5820000000000001</v>
       </c>
       <c r="AI55" s="3">
-        <v>1.857</v>
+        <v>1.044</v>
       </c>
       <c r="AJ55" s="3">
-        <v>2.7189999999999999</v>
-      </c>
-      <c r="AK55" s="3">
-        <v>1.861</v>
-      </c>
-      <c r="AL55" s="3">
-        <v>1.008</v>
-      </c>
-      <c r="AM55" s="3">
-        <v>1.5820000000000001</v>
-      </c>
-      <c r="AN55" s="3">
-        <v>1.044</v>
-      </c>
-      <c r="AO55" s="3">
         <v>0.81799999999999995</v>
       </c>
-      <c r="AP55" s="3" t="s">
+      <c r="AK55" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -6869,53 +6149,38 @@
       <c r="AA56" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB56" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC56" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD56" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE56" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF56" s="3" t="s">
-        <v>27</v>
+      <c r="AB56" s="3">
+        <v>95.093000000000004</v>
+      </c>
+      <c r="AC56" s="3">
+        <v>94.427999999999997</v>
+      </c>
+      <c r="AD56" s="3">
+        <v>94.111000000000004</v>
+      </c>
+      <c r="AE56" s="3">
+        <v>85.908000000000001</v>
+      </c>
+      <c r="AF56" s="3">
+        <v>89.111000000000004</v>
       </c>
       <c r="AG56" s="3">
-        <v>95.093000000000004</v>
+        <v>105.53</v>
       </c>
       <c r="AH56" s="3">
-        <v>94.427999999999997</v>
+        <v>97.82</v>
       </c>
       <c r="AI56" s="3">
-        <v>94.111000000000004</v>
+        <v>100.76600000000001</v>
       </c>
       <c r="AJ56" s="3">
-        <v>85.908000000000001</v>
-      </c>
-      <c r="AK56" s="3">
-        <v>89.111000000000004</v>
-      </c>
-      <c r="AL56" s="3">
-        <v>105.53</v>
-      </c>
-      <c r="AM56" s="3">
-        <v>97.82</v>
-      </c>
-      <c r="AN56" s="3">
-        <v>100.76600000000001</v>
-      </c>
-      <c r="AO56" s="3">
         <v>106.545</v>
       </c>
-      <c r="AP56" s="3" t="s">
+      <c r="AK56" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -6997,53 +6262,38 @@
       <c r="AA57" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC57" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD57" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE57" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF57" s="3" t="s">
-        <v>27</v>
+      <c r="AB57" s="3">
+        <v>12.138</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>12.973000000000001</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>12.305999999999999</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>11.571999999999999</v>
+      </c>
+      <c r="AF57" s="3">
+        <v>10.331</v>
       </c>
       <c r="AG57" s="3">
-        <v>12.138</v>
+        <v>12.443</v>
       </c>
       <c r="AH57" s="3">
-        <v>12.973000000000001</v>
+        <v>13.204000000000001</v>
       </c>
       <c r="AI57" s="3">
-        <v>12.305999999999999</v>
+        <v>11.337</v>
       </c>
       <c r="AJ57" s="3">
-        <v>11.571999999999999</v>
-      </c>
-      <c r="AK57" s="3">
-        <v>10.331</v>
-      </c>
-      <c r="AL57" s="3">
-        <v>12.443</v>
-      </c>
-      <c r="AM57" s="3">
-        <v>13.204000000000001</v>
-      </c>
-      <c r="AN57" s="3">
-        <v>11.337</v>
-      </c>
-      <c r="AO57" s="3">
         <v>11.683</v>
       </c>
-      <c r="AP57" s="3" t="s">
+      <c r="AK57" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -7125,53 +6375,38 @@
       <c r="AA58" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC58" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD58" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE58" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF58" s="3" t="s">
-        <v>27</v>
+      <c r="AB58" s="3">
+        <v>7.556</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>7.1550000000000002</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>6.3460000000000001</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>7.1180000000000003</v>
+      </c>
+      <c r="AF58" s="3">
+        <v>7.0650000000000004</v>
       </c>
       <c r="AG58" s="3">
-        <v>7.556</v>
+        <v>9.0630000000000006</v>
       </c>
       <c r="AH58" s="3">
-        <v>7.1550000000000002</v>
+        <v>8.8230000000000004</v>
       </c>
       <c r="AI58" s="3">
-        <v>6.3460000000000001</v>
+        <v>8.4670000000000005</v>
       </c>
       <c r="AJ58" s="3">
-        <v>7.1180000000000003</v>
-      </c>
-      <c r="AK58" s="3">
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="AL58" s="3">
-        <v>9.0630000000000006</v>
-      </c>
-      <c r="AM58" s="3">
-        <v>8.8230000000000004</v>
-      </c>
-      <c r="AN58" s="3">
-        <v>8.4670000000000005</v>
-      </c>
-      <c r="AO58" s="3">
         <v>8.5749999999999993</v>
       </c>
-      <c r="AP58" s="3" t="s">
+      <c r="AK58" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>54</v>
       </c>
@@ -7253,53 +6488,38 @@
       <c r="AA59" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC59" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD59" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE59" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF59" s="3" t="s">
-        <v>27</v>
+      <c r="AB59" s="3">
+        <v>53.1</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>52.7</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>48.283999999999999</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>43.36</v>
+      </c>
+      <c r="AF59" s="3">
+        <v>45.737000000000002</v>
       </c>
       <c r="AG59" s="3">
-        <v>53.1</v>
+        <v>61.424999999999997</v>
       </c>
       <c r="AH59" s="3">
-        <v>52.7</v>
+        <v>60.444000000000003</v>
       </c>
       <c r="AI59" s="3">
-        <v>48.283999999999999</v>
+        <v>65.143000000000001</v>
       </c>
       <c r="AJ59" s="3">
-        <v>43.36</v>
-      </c>
-      <c r="AK59" s="3">
-        <v>45.737000000000002</v>
-      </c>
-      <c r="AL59" s="3">
-        <v>61.424999999999997</v>
-      </c>
-      <c r="AM59" s="3">
-        <v>60.444000000000003</v>
-      </c>
-      <c r="AN59" s="3">
-        <v>65.143000000000001</v>
-      </c>
-      <c r="AO59" s="3">
         <v>66.463999999999999</v>
       </c>
-      <c r="AP59" s="3" t="s">
+      <c r="AK59" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>54</v>
       </c>
@@ -7381,53 +6601,38 @@
       <c r="AA60" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC60" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD60" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE60" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF60" s="3" t="s">
-        <v>27</v>
+      <c r="AB60" s="3">
+        <v>137.95400000000001</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>125.22199999999999</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>133.04900000000001</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>136.12200000000001</v>
+      </c>
+      <c r="AF60" s="3">
+        <v>126.32299999999999</v>
       </c>
       <c r="AG60" s="3">
-        <v>137.95400000000001</v>
+        <v>143.87299999999999</v>
       </c>
       <c r="AH60" s="3">
-        <v>125.22199999999999</v>
+        <v>130.197</v>
       </c>
       <c r="AI60" s="3">
-        <v>133.04900000000001</v>
+        <v>132.24100000000001</v>
       </c>
       <c r="AJ60" s="3">
-        <v>136.12200000000001</v>
-      </c>
-      <c r="AK60" s="3">
-        <v>126.32299999999999</v>
-      </c>
-      <c r="AL60" s="3">
-        <v>143.87299999999999</v>
-      </c>
-      <c r="AM60" s="3">
-        <v>130.197</v>
-      </c>
-      <c r="AN60" s="3">
-        <v>132.24100000000001</v>
-      </c>
-      <c r="AO60" s="3">
         <v>136.42099999999999</v>
       </c>
-      <c r="AP60" s="3" t="s">
+      <c r="AK60" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>54</v>
       </c>
@@ -7509,53 +6714,38 @@
       <c r="AA61" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB61" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC61" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD61" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE61" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF61" s="3" t="s">
-        <v>27</v>
+      <c r="AB61" s="3">
+        <v>45.097999999999999</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>42.725999999999999</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>43.255000000000003</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>40.94</v>
+      </c>
+      <c r="AF61" s="3">
+        <v>37.499000000000002</v>
       </c>
       <c r="AG61" s="3">
-        <v>45.097999999999999</v>
+        <v>42.000999999999998</v>
       </c>
       <c r="AH61" s="3">
-        <v>42.725999999999999</v>
+        <v>41.213000000000001</v>
       </c>
       <c r="AI61" s="3">
-        <v>43.255000000000003</v>
+        <v>38.399000000000001</v>
       </c>
       <c r="AJ61" s="3">
-        <v>40.94</v>
-      </c>
-      <c r="AK61" s="3">
-        <v>37.499000000000002</v>
-      </c>
-      <c r="AL61" s="3">
-        <v>42.000999999999998</v>
-      </c>
-      <c r="AM61" s="3">
-        <v>41.213000000000001</v>
-      </c>
-      <c r="AN61" s="3">
-        <v>38.399000000000001</v>
-      </c>
-      <c r="AO61" s="3">
         <v>39.405999999999999</v>
       </c>
-      <c r="AP61" s="3" t="s">
+      <c r="AK61" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -7637,53 +6827,38 @@
       <c r="AA62" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC62" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD62" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE62" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF62" s="3" t="s">
-        <v>27</v>
+      <c r="AB62" s="3">
+        <v>20.646000000000001</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>20.077999999999999</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>17.242999999999999</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>18.164000000000001</v>
+      </c>
+      <c r="AF62" s="3">
+        <v>16.937999999999999</v>
       </c>
       <c r="AG62" s="3">
-        <v>20.646000000000001</v>
+        <v>19.91</v>
       </c>
       <c r="AH62" s="3">
-        <v>20.077999999999999</v>
+        <v>18.161999999999999</v>
       </c>
       <c r="AI62" s="3">
-        <v>17.242999999999999</v>
+        <v>15.29</v>
       </c>
       <c r="AJ62" s="3">
-        <v>18.164000000000001</v>
-      </c>
-      <c r="AK62" s="3">
-        <v>16.937999999999999</v>
-      </c>
-      <c r="AL62" s="3">
-        <v>19.91</v>
-      </c>
-      <c r="AM62" s="3">
-        <v>18.161999999999999</v>
-      </c>
-      <c r="AN62" s="3">
-        <v>15.29</v>
-      </c>
-      <c r="AO62" s="3">
         <v>16.242999999999999</v>
       </c>
-      <c r="AP62" s="3" t="s">
+      <c r="AK62" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>54</v>
       </c>
@@ -7765,53 +6940,38 @@
       <c r="AA63" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB63" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC63" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD63" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE63" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF63" s="3" t="s">
-        <v>27</v>
+      <c r="AB63" s="3">
+        <v>16.602</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>18.173999999999999</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>16.486000000000001</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>14.35</v>
+      </c>
+      <c r="AF63" s="3">
+        <v>16.856000000000002</v>
       </c>
       <c r="AG63" s="3">
-        <v>16.602</v>
+        <v>17.856000000000002</v>
       </c>
       <c r="AH63" s="3">
-        <v>18.173999999999999</v>
+        <v>20.263000000000002</v>
       </c>
       <c r="AI63" s="3">
-        <v>16.486000000000001</v>
+        <v>21.808</v>
       </c>
       <c r="AJ63" s="3">
-        <v>14.35</v>
-      </c>
-      <c r="AK63" s="3">
-        <v>16.856000000000002</v>
-      </c>
-      <c r="AL63" s="3">
-        <v>17.856000000000002</v>
-      </c>
-      <c r="AM63" s="3">
-        <v>20.263000000000002</v>
-      </c>
-      <c r="AN63" s="3">
-        <v>21.808</v>
-      </c>
-      <c r="AO63" s="3">
         <v>24.347999999999999</v>
       </c>
-      <c r="AP63" s="3" t="s">
+      <c r="AK63" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -7893,53 +7053,38 @@
       <c r="AA64" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB64" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC64" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD64" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE64" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF64" s="3" t="s">
-        <v>27</v>
+      <c r="AB64" s="3">
+        <v>13.362</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>13.028</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>12.385999999999999</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>10.787000000000001</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>11.07</v>
       </c>
       <c r="AG64" s="3">
-        <v>13.362</v>
+        <v>10.901999999999999</v>
       </c>
       <c r="AH64" s="3">
-        <v>13.028</v>
+        <v>12.64</v>
       </c>
       <c r="AI64" s="3">
-        <v>12.385999999999999</v>
+        <v>12.776999999999999</v>
       </c>
       <c r="AJ64" s="3">
-        <v>10.787000000000001</v>
-      </c>
-      <c r="AK64" s="3">
-        <v>11.07</v>
-      </c>
-      <c r="AL64" s="3">
-        <v>10.901999999999999</v>
-      </c>
-      <c r="AM64" s="3">
-        <v>12.64</v>
-      </c>
-      <c r="AN64" s="3">
-        <v>12.776999999999999</v>
-      </c>
-      <c r="AO64" s="3">
         <v>15.936</v>
       </c>
-      <c r="AP64" s="3" t="s">
+      <c r="AK64" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>54</v>
       </c>
@@ -8021,53 +7166,38 @@
       <c r="AA65" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB65" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC65" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD65" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE65" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF65" s="3" t="s">
-        <v>27</v>
+      <c r="AB65" s="3">
+        <v>6.3979999999999997</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>4.5279999999999996</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>3.371</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>3.254</v>
       </c>
       <c r="AG65" s="3">
-        <v>6.3979999999999997</v>
+        <v>6.0289999999999999</v>
       </c>
       <c r="AH65" s="3">
-        <v>4.5279999999999996</v>
+        <v>5.3220000000000001</v>
       </c>
       <c r="AI65" s="3">
-        <v>3.371</v>
+        <v>5.95</v>
       </c>
       <c r="AJ65" s="3">
-        <v>3.5750000000000002</v>
-      </c>
-      <c r="AK65" s="3">
-        <v>3.254</v>
-      </c>
-      <c r="AL65" s="3">
-        <v>6.0289999999999999</v>
-      </c>
-      <c r="AM65" s="3">
-        <v>5.3220000000000001</v>
-      </c>
-      <c r="AN65" s="3">
-        <v>5.95</v>
-      </c>
-      <c r="AO65" s="3">
         <v>6.7960000000000003</v>
       </c>
-      <c r="AP65" s="3" t="s">
+      <c r="AK65" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>54</v>
       </c>
@@ -8149,53 +7279,38 @@
       <c r="AA66" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC66" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD66" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE66" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF66" s="3" t="s">
-        <v>27</v>
+      <c r="AB66" s="3">
+        <v>19.193000000000001</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>19.939</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>18.265000000000001</v>
+      </c>
+      <c r="AE66" s="3">
+        <v>18.128</v>
+      </c>
+      <c r="AF66" s="3">
+        <v>15.95</v>
       </c>
       <c r="AG66" s="3">
-        <v>19.193000000000001</v>
+        <v>14.29</v>
       </c>
       <c r="AH66" s="3">
-        <v>19.939</v>
+        <v>13.775</v>
       </c>
       <c r="AI66" s="3">
-        <v>18.265000000000001</v>
+        <v>16.276</v>
       </c>
       <c r="AJ66" s="3">
-        <v>18.128</v>
-      </c>
-      <c r="AK66" s="3">
-        <v>15.95</v>
-      </c>
-      <c r="AL66" s="3">
-        <v>14.29</v>
-      </c>
-      <c r="AM66" s="3">
-        <v>13.775</v>
-      </c>
-      <c r="AN66" s="3">
-        <v>16.276</v>
-      </c>
-      <c r="AO66" s="3">
         <v>12.417</v>
       </c>
-      <c r="AP66" s="3" t="s">
+      <c r="AK66" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>54</v>
       </c>
@@ -8277,53 +7392,38 @@
       <c r="AA67" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB67" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC67" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD67" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE67" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF67" s="3" t="s">
-        <v>27</v>
+      <c r="AB67" s="3">
+        <v>10.204000000000001</v>
+      </c>
+      <c r="AC67" s="3">
+        <v>9.4529999999999994</v>
+      </c>
+      <c r="AD67" s="3">
+        <v>9.7210000000000001</v>
+      </c>
+      <c r="AE67" s="3">
+        <v>10.834</v>
+      </c>
+      <c r="AF67" s="3">
+        <v>9.8559999999999999</v>
       </c>
       <c r="AG67" s="3">
-        <v>10.204000000000001</v>
+        <v>12.512</v>
       </c>
       <c r="AH67" s="3">
-        <v>9.4529999999999994</v>
+        <v>11.090999999999999</v>
       </c>
       <c r="AI67" s="3">
-        <v>9.7210000000000001</v>
+        <v>9.6940000000000008</v>
       </c>
       <c r="AJ67" s="3">
-        <v>10.834</v>
-      </c>
-      <c r="AK67" s="3">
-        <v>9.8559999999999999</v>
-      </c>
-      <c r="AL67" s="3">
-        <v>12.512</v>
-      </c>
-      <c r="AM67" s="3">
-        <v>11.090999999999999</v>
-      </c>
-      <c r="AN67" s="3">
-        <v>9.6940000000000008</v>
-      </c>
-      <c r="AO67" s="3">
         <v>9.0739999999999998</v>
       </c>
-      <c r="AP67" s="3" t="s">
+      <c r="AK67" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>54</v>
       </c>
@@ -8405,53 +7505,38 @@
       <c r="AA68" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB68" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC68" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD68" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE68" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF68" s="3" t="s">
-        <v>27</v>
+      <c r="AB68" s="3">
+        <v>47.305</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>48.954000000000001</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>48.09</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>49.192</v>
+      </c>
+      <c r="AF68" s="3">
+        <v>43.460999999999999</v>
       </c>
       <c r="AG68" s="3">
-        <v>47.305</v>
+        <v>49.622999999999998</v>
       </c>
       <c r="AH68" s="3">
-        <v>48.954000000000001</v>
+        <v>49.481999999999999</v>
       </c>
       <c r="AI68" s="3">
-        <v>48.09</v>
+        <v>49.923999999999999</v>
       </c>
       <c r="AJ68" s="3">
-        <v>49.192</v>
-      </c>
-      <c r="AK68" s="3">
-        <v>43.460999999999999</v>
-      </c>
-      <c r="AL68" s="3">
-        <v>49.622999999999998</v>
-      </c>
-      <c r="AM68" s="3">
-        <v>49.481999999999999</v>
-      </c>
-      <c r="AN68" s="3">
-        <v>49.923999999999999</v>
-      </c>
-      <c r="AO68" s="3">
         <v>46.896000000000001</v>
       </c>
-      <c r="AP68" s="3" t="s">
+      <c r="AK68" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>54</v>
       </c>
@@ -8533,53 +7618,38 @@
       <c r="AA69" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB69" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC69" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD69" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE69" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF69" s="3" t="s">
-        <v>27</v>
+      <c r="AB69" s="3">
+        <v>89.034999999999997</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>87.632000000000005</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>81.135999999999996</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>81.55</v>
+      </c>
+      <c r="AF69" s="3">
+        <v>83.048000000000002</v>
       </c>
       <c r="AG69" s="3">
-        <v>89.034999999999997</v>
+        <v>89.605000000000004</v>
       </c>
       <c r="AH69" s="3">
-        <v>87.632000000000005</v>
+        <v>88.94</v>
       </c>
       <c r="AI69" s="3">
-        <v>81.135999999999996</v>
+        <v>85.915999999999997</v>
       </c>
       <c r="AJ69" s="3">
-        <v>81.55</v>
-      </c>
-      <c r="AK69" s="3">
-        <v>83.048000000000002</v>
-      </c>
-      <c r="AL69" s="3">
-        <v>89.605000000000004</v>
-      </c>
-      <c r="AM69" s="3">
-        <v>88.94</v>
-      </c>
-      <c r="AN69" s="3">
-        <v>85.915999999999997</v>
-      </c>
-      <c r="AO69" s="3">
         <v>92.679000000000002</v>
       </c>
-      <c r="AP69" s="3" t="s">
+      <c r="AK69" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>54</v>
       </c>
@@ -8661,53 +7731,38 @@
       <c r="AA70" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB70" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC70" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD70" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE70" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF70" s="3" t="s">
-        <v>27</v>
+      <c r="AB70" s="3">
+        <v>52.06</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>54.213999999999999</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>49.61</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>51.899000000000001</v>
+      </c>
+      <c r="AF70" s="3">
+        <v>49.494</v>
       </c>
       <c r="AG70" s="3">
-        <v>52.06</v>
+        <v>58.29</v>
       </c>
       <c r="AH70" s="3">
-        <v>54.213999999999999</v>
+        <v>54.71</v>
       </c>
       <c r="AI70" s="3">
-        <v>49.61</v>
+        <v>57.648000000000003</v>
       </c>
       <c r="AJ70" s="3">
-        <v>51.899000000000001</v>
-      </c>
-      <c r="AK70" s="3">
-        <v>49.494</v>
-      </c>
-      <c r="AL70" s="3">
-        <v>58.29</v>
-      </c>
-      <c r="AM70" s="3">
-        <v>54.71</v>
-      </c>
-      <c r="AN70" s="3">
-        <v>57.648000000000003</v>
-      </c>
-      <c r="AO70" s="3">
         <v>57.823999999999998</v>
       </c>
-      <c r="AP70" s="3" t="s">
+      <c r="AK70" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>54</v>
       </c>
@@ -8789,53 +7844,38 @@
       <c r="AA71" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB71" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC71" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD71" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE71" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF71" s="3" t="s">
-        <v>27</v>
+      <c r="AB71" s="3">
+        <v>12.877000000000001</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>14.298999999999999</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>12.935</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>12.728999999999999</v>
+      </c>
+      <c r="AF71" s="3">
+        <v>11.282999999999999</v>
       </c>
       <c r="AG71" s="3">
-        <v>12.877000000000001</v>
+        <v>15.007999999999999</v>
       </c>
       <c r="AH71" s="3">
-        <v>14.298999999999999</v>
+        <v>12.98</v>
       </c>
       <c r="AI71" s="3">
-        <v>12.935</v>
+        <v>9.1780000000000008</v>
       </c>
       <c r="AJ71" s="3">
-        <v>12.728999999999999</v>
-      </c>
-      <c r="AK71" s="3">
-        <v>11.282999999999999</v>
-      </c>
-      <c r="AL71" s="3">
-        <v>15.007999999999999</v>
-      </c>
-      <c r="AM71" s="3">
-        <v>12.98</v>
-      </c>
-      <c r="AN71" s="3">
-        <v>9.1780000000000008</v>
-      </c>
-      <c r="AO71" s="3">
         <v>9.9920000000000009</v>
       </c>
-      <c r="AP71" s="3" t="s">
+      <c r="AK71" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>54</v>
       </c>
@@ -8917,53 +7957,38 @@
       <c r="AA72" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC72" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD72" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE72" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF72" s="3" t="s">
-        <v>27</v>
+      <c r="AB72" s="3">
+        <v>18.869</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>19.78</v>
+      </c>
+      <c r="AD72" s="3">
+        <v>18.814</v>
+      </c>
+      <c r="AE72" s="3">
+        <v>17.728000000000002</v>
+      </c>
+      <c r="AF72" s="3">
+        <v>17.658999999999999</v>
       </c>
       <c r="AG72" s="3">
-        <v>18.869</v>
+        <v>16.82</v>
       </c>
       <c r="AH72" s="3">
-        <v>19.78</v>
+        <v>15.788</v>
       </c>
       <c r="AI72" s="3">
-        <v>18.814</v>
+        <v>18.295000000000002</v>
       </c>
       <c r="AJ72" s="3">
-        <v>17.728000000000002</v>
-      </c>
-      <c r="AK72" s="3">
-        <v>17.658999999999999</v>
-      </c>
-      <c r="AL72" s="3">
-        <v>16.82</v>
-      </c>
-      <c r="AM72" s="3">
-        <v>15.788</v>
-      </c>
-      <c r="AN72" s="3">
-        <v>18.295000000000002</v>
-      </c>
-      <c r="AO72" s="3">
         <v>17.591999999999999</v>
       </c>
-      <c r="AP72" s="3" t="s">
+      <c r="AK72" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>54</v>
       </c>
@@ -9045,53 +8070,38 @@
       <c r="AA73" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB73" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC73" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD73" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE73" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF73" s="3" t="s">
-        <v>27</v>
+      <c r="AB73" s="3">
+        <v>2.6720000000000002</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>2.9390000000000001</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>2.7440000000000002</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>2.6629999999999998</v>
+      </c>
+      <c r="AF73" s="3">
+        <v>2.8889999999999998</v>
       </c>
       <c r="AG73" s="3">
-        <v>2.6720000000000002</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="AH73" s="3">
-        <v>2.9390000000000001</v>
+        <v>1.4059999999999999</v>
       </c>
       <c r="AI73" s="3">
-        <v>2.7440000000000002</v>
+        <v>1.661</v>
       </c>
       <c r="AJ73" s="3">
-        <v>2.6629999999999998</v>
-      </c>
-      <c r="AK73" s="3">
-        <v>2.8889999999999998</v>
-      </c>
-      <c r="AL73" s="3">
-        <v>2.7770000000000001</v>
-      </c>
-      <c r="AM73" s="3">
-        <v>1.4059999999999999</v>
-      </c>
-      <c r="AN73" s="3">
-        <v>1.661</v>
-      </c>
-      <c r="AO73" s="3">
         <v>2.6709999999999998</v>
       </c>
-      <c r="AP73" s="3" t="s">
+      <c r="AK73" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>54</v>
       </c>
@@ -9173,53 +8183,38 @@
       <c r="AA74" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB74" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC74" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD74" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE74" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF74" s="3" t="s">
-        <v>27</v>
+      <c r="AB74" s="3">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0.314</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="AF74" s="3">
+        <v>0.2</v>
       </c>
       <c r="AG74" s="3">
-        <v>0.32400000000000001</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="AH74" s="3">
-        <v>0.63500000000000001</v>
+        <v>0.497</v>
       </c>
       <c r="AI74" s="3">
-        <v>0.314</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="AJ74" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="AK74" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="AL74" s="3">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="AM74" s="3">
-        <v>0.497</v>
-      </c>
-      <c r="AN74" s="3">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="AO74" s="3">
         <v>0.64400000000000002</v>
       </c>
-      <c r="AP74" s="3" t="s">
+      <c r="AK74" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>58</v>
       </c>
@@ -9227,7 +8222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B77" s="5" t="s">
         <v>59</v>
       </c>
